--- a/xlsx/美国黑人_intext.xlsx
+++ b/xlsx/美国黑人_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>美国黑人</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国黑人</t>
+    <t>政策_政策_美国_美国黑人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%8B%89%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>古拉人種</t>
+    <t>古拉人种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>美國人口</t>
+    <t>美国人口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>種族歧視</t>
+    <t>种族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%AC%BC</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國最高法院</t>
+    <t>美国最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E8%A5%BF%E8%AF%89%E5%BC%97%E6%A0%BC%E6%A3%AE%E6%A1%88</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E4%BD%86%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>隔離但平等</t>
+    <t>隔离但平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>種族隔離</t>
+    <t>种族隔离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
@@ -299,31 +299,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民權</t>
+    <t>公民权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·歐巴馬</t>
+    <t>巴拉克·欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2008年美國總統選舉</t>
+    <t>2008年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>美國歷史</t>
+    <t>美国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭裔美國人</t>
+    <t>爱尔兰裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -353,15 +353,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AD%A3%E7%A2%BA</t>
   </si>
   <si>
-    <t>政治正確</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
   </si>
   <si>
-    <t>亞伯拉罕·林肯</t>
+    <t>亚伯拉罕·林肯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
   </si>
   <si>
-    <t>羅斯福新政</t>
+    <t>罗斯福新政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94</t>
@@ -413,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%91%9E%C2%B7%E9%82%A6%E8%8C%B2</t>
   </si>
   <si>
-    <t>貝瑞·邦茲</t>
+    <t>贝瑞·邦兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E5%A3%AF</t>
   </si>
   <si>
-    <t>路易斯·阿姆斯壯</t>
+    <t>路易斯·阿姆斯壮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
@@ -2429,7 +2426,7 @@
         <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2455,10 +2452,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -2484,10 +2481,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2513,10 +2510,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2542,10 +2539,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2571,10 +2568,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>27</v>
@@ -2600,10 +2597,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2629,10 +2626,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2658,10 +2655,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2687,10 +2684,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2716,10 +2713,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2745,10 +2742,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2774,10 +2771,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>18</v>
@@ -2803,10 +2800,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
